--- a/app/static/data/weekly.xlsx
+++ b/app/static/data/weekly.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="8" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="办公" sheetId="2" r:id="rId3"/>
     <sheet name="别墅" sheetId="3" r:id="rId4"/>
     <sheet name="住宅（含别墅）" sheetId="4" r:id="rId5"/>
-    <sheet name="住宅面积-排行" sheetId="7" r:id="rId6"/>
+    <sheet name="住宅-排行" sheetId="7" r:id="rId6"/>
     <sheet name="住宅套数-排行" sheetId="9" r:id="rId7"/>
     <sheet name="商业-排行" sheetId="5" r:id="rId8"/>
     <sheet name="办公-排行" sheetId="6" r:id="rId9"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="94">
   <si>
     <t>城中</t>
   </si>
@@ -61,76 +61,12 @@
   </si>
   <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t>供面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供面环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供套环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>板块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认购1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销面环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销套环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>排名</t>
   </si>
   <si>
@@ -182,225 +118,221 @@
     <t>汇金中心</t>
   </si>
   <si>
-    <t>板块</t>
+    <t>丽岛花园、丽岛新城</t>
+  </si>
+  <si>
+    <t>丽岛新城</t>
+  </si>
+  <si>
+    <t>玉兰公馆花园</t>
+  </si>
+  <si>
+    <t>融创玉兰公馆</t>
+  </si>
+  <si>
+    <t>依山溪谷花园</t>
+  </si>
+  <si>
+    <t>兰溪谷</t>
+  </si>
+  <si>
+    <t>依云华府</t>
+  </si>
+  <si>
+    <t>招商1872</t>
+  </si>
+  <si>
+    <t>万汇城南区</t>
+  </si>
+  <si>
+    <t>东方万汇城</t>
+  </si>
+  <si>
+    <t>海嘉花园</t>
+  </si>
+  <si>
+    <t>中海玄武公馆</t>
+  </si>
+  <si>
+    <t>恒景滨江城</t>
+  </si>
+  <si>
+    <t>恒大滨江</t>
+  </si>
+  <si>
+    <t>海峡城</t>
+  </si>
+  <si>
+    <t>峰云府</t>
+  </si>
+  <si>
+    <t>南京证大大拇指广场</t>
+  </si>
+  <si>
+    <t>观城</t>
+  </si>
+  <si>
+    <t>融侨观邸</t>
+  </si>
+  <si>
+    <t>竹水居</t>
+  </si>
+  <si>
+    <t>禹洲弘阳滨湖里</t>
+  </si>
+  <si>
+    <t>荣里花园</t>
+  </si>
+  <si>
+    <t>世茂荣里</t>
+  </si>
+  <si>
+    <t>星立方广场</t>
+  </si>
+  <si>
+    <t>金轮星立方</t>
+  </si>
+  <si>
+    <t>天鹅湖花园</t>
+  </si>
+  <si>
+    <t>西善桥岱山西侧C地块经济适用住房</t>
+  </si>
+  <si>
+    <t>西善桥岱山西侧C片保障性住房项目</t>
+  </si>
+  <si>
+    <t>东方兰园</t>
+  </si>
+  <si>
+    <t>未来家</t>
+  </si>
+  <si>
+    <t>朗诗未来家</t>
+  </si>
+  <si>
+    <t>鸿云坊</t>
+  </si>
+  <si>
+    <t>中粮鸿云</t>
+  </si>
+  <si>
+    <t>启迪城</t>
+  </si>
+  <si>
+    <t>启迪方洲</t>
+  </si>
+  <si>
+    <t>锦绣江山花园</t>
+  </si>
+  <si>
+    <t>中冶盛世滨江</t>
+  </si>
+  <si>
+    <t>金宸商贸园</t>
+  </si>
+  <si>
+    <t>万宇汽车五金博览中心</t>
+  </si>
+  <si>
+    <t>大里聚福城觅秀东园、大里聚福城</t>
+  </si>
+  <si>
+    <t>大里聚福城</t>
+  </si>
+  <si>
+    <t>紫金嘉悦广场</t>
+  </si>
+  <si>
+    <t>苏宁紫金嘉悦</t>
+  </si>
+  <si>
+    <t>东骏悦府</t>
+  </si>
+  <si>
+    <t>明发新城中心</t>
+  </si>
+  <si>
+    <t>宴南都花园</t>
+  </si>
+  <si>
+    <t>复地宴南都</t>
+  </si>
+  <si>
+    <t>尚峰尚水山庄嵩园</t>
+  </si>
+  <si>
+    <t>正源尚峰尚水</t>
+  </si>
+  <si>
+    <t>滨河城市花园</t>
+  </si>
+  <si>
+    <t>石林大公园</t>
+  </si>
+  <si>
+    <t>上市面积</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供面</t>
+    <t>上市面积环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供面环比</t>
+    <t>上市套数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供套</t>
+    <t>上市套数环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供套环比</t>
+    <t>认购面积</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认面</t>
+    <t>认购面积环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认面环比</t>
+    <t>认购套数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认套</t>
+    <t>认购套数环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>认套环比</t>
+    <t>已售面积</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销面</t>
+    <t>已售面积环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销面环比</t>
+    <t>已售套数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销套</t>
+    <t>已售套数环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销套环比</t>
+    <t>金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金</t>
+    <t>金额环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金环比</t>
+    <t>均价</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>价</t>
+    <t>均价环比</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价环比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽岛花园、丽岛新城</t>
-  </si>
-  <si>
-    <t>丽岛新城</t>
-  </si>
-  <si>
-    <t>玉兰公馆花园</t>
-  </si>
-  <si>
-    <t>融创玉兰公馆</t>
-  </si>
-  <si>
-    <t>依山溪谷花园</t>
-  </si>
-  <si>
-    <t>兰溪谷</t>
-  </si>
-  <si>
-    <t>依云华府</t>
-  </si>
-  <si>
-    <t>招商1872</t>
-  </si>
-  <si>
-    <t>万汇城南区</t>
-  </si>
-  <si>
-    <t>东方万汇城</t>
-  </si>
-  <si>
-    <t>海嘉花园</t>
-  </si>
-  <si>
-    <t>中海玄武公馆</t>
-  </si>
-  <si>
-    <t>恒景滨江城</t>
-  </si>
-  <si>
-    <t>恒大滨江</t>
-  </si>
-  <si>
-    <t>海峡城</t>
-  </si>
-  <si>
-    <t>峰云府</t>
-  </si>
-  <si>
-    <t>南京证大大拇指广场</t>
-  </si>
-  <si>
-    <t>观城</t>
-  </si>
-  <si>
-    <t>融侨观邸</t>
-  </si>
-  <si>
-    <t>竹水居</t>
-  </si>
-  <si>
-    <t>禹洲弘阳滨湖里</t>
-  </si>
-  <si>
-    <t>荣里花园</t>
-  </si>
-  <si>
-    <t>世茂荣里</t>
-  </si>
-  <si>
-    <t>星立方广场</t>
-  </si>
-  <si>
-    <t>金轮星立方</t>
-  </si>
-  <si>
-    <t>天鹅湖花园</t>
-  </si>
-  <si>
-    <t>西善桥岱山西侧C地块经济适用住房</t>
-  </si>
-  <si>
-    <t>西善桥岱山西侧C片保障性住房项目</t>
-  </si>
-  <si>
-    <t>东方兰园</t>
-  </si>
-  <si>
-    <t>未来家</t>
-  </si>
-  <si>
-    <t>朗诗未来家</t>
-  </si>
-  <si>
-    <t>鸿云坊</t>
-  </si>
-  <si>
-    <t>中粮鸿云</t>
-  </si>
-  <si>
-    <t>启迪城</t>
-  </si>
-  <si>
-    <t>启迪方洲</t>
-  </si>
-  <si>
-    <t>锦绣江山花园</t>
-  </si>
-  <si>
-    <t>中冶盛世滨江</t>
-  </si>
-  <si>
-    <t>金宸商贸园</t>
-  </si>
-  <si>
-    <t>万宇汽车五金博览中心</t>
-  </si>
-  <si>
-    <t>大里聚福城觅秀东园、大里聚福城</t>
-  </si>
-  <si>
-    <t>大里聚福城</t>
-  </si>
-  <si>
-    <t>紫金嘉悦广场</t>
-  </si>
-  <si>
-    <t>苏宁紫金嘉悦</t>
-  </si>
-  <si>
-    <t>东骏悦府</t>
-  </si>
-  <si>
-    <t>明发新城中心</t>
-  </si>
-  <si>
-    <t>宴南都花园</t>
-  </si>
-  <si>
-    <t>复地宴南都</t>
-  </si>
-  <si>
-    <t>尚峰尚水山庄嵩园</t>
-  </si>
-  <si>
-    <t>正源尚峰尚水</t>
-  </si>
-  <si>
-    <t>滨河城市花园</t>
-  </si>
-  <si>
-    <t>石林大公园</t>
   </si>
 </sst>
 </file>
@@ -652,6 +584,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -687,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,63 +807,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1441,36 +1407,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1478,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1504,10 +1470,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -1530,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1556,10 +1522,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -1582,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1608,10 +1574,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1634,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1660,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -1686,10 +1652,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1712,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -1756,63 +1722,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2356,63 +2322,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -2956,62 +2922,62 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3555,62 +3521,62 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>43</v>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -4154,36 +4120,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4191,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -4217,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -4243,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4269,10 +4235,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -4295,10 +4261,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -4321,10 +4287,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -4347,10 +4313,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -4373,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -4399,10 +4365,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -4425,10 +4391,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -4477,28 +4443,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4506,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -4532,10 +4498,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4584,10 +4550,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -4610,10 +4576,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -4636,10 +4602,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -4662,10 +4628,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -4688,10 +4654,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
@@ -4714,10 +4680,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -4740,10 +4706,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
@@ -4791,28 +4757,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -4820,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -4846,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>7</v>
@@ -4872,10 +4838,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -4898,10 +4864,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -4924,10 +4890,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -4950,10 +4916,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -4976,10 +4942,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -5002,10 +4968,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
@@ -5028,10 +4994,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -5054,10 +5020,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -5104,28 +5070,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5133,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -5159,10 +5125,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -5185,10 +5151,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -5211,10 +5177,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -5237,10 +5203,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -5263,10 +5229,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -5289,10 +5255,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -5315,10 +5281,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -5341,10 +5307,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -5367,10 +5333,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
